--- a/Data/ENCORE_2024_Priming/CRMAccuracyData.xlsx
+++ b/Data/ENCORE_2024_Priming/CRMAccuracyData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PPP Lab\Documents\Titrator\Data\ENCORE_2024_Priming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4FA144-FE13-42E5-AA13-6EBA988600C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F92D795-259A-4FAD-BDC4-9EF4EB3C5665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8130" yWindow="375" windowWidth="11685" windowHeight="10185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1335" windowWidth="11685" windowHeight="10185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CRMAccuracyData" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>No open date</t>
   </si>
 </sst>
 </file>
@@ -926,7 +929,7 @@
   <dimension ref="A1:F150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F150"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -958,28 +961,57 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="A2" s="1">
+        <v>20241008</v>
+      </c>
+      <c r="B2">
+        <v>2218.3133600000001</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2224.4699999999998</v>
+      </c>
+      <c r="D2" s="1">
+        <f t="shared" ref="D2" si="0">100*(B2-C2)/C2</f>
+        <v>-0.27676884830992093</v>
+      </c>
+      <c r="E2" s="1">
+        <v>180</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="15.75">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1">
+        <v>20241009</v>
+      </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1">
+        <v>2224.4699999999998</v>
+      </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="E3" s="1">
+        <v>180</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="15.75">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1">
+        <v>20241010</v>
+      </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1">
+        <v>2224.4699999999998</v>
+      </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="E4" s="1">
+        <v>180</v>
+      </c>
+      <c r="F4" s="1">
+        <v>20241010</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="15.75">
       <c r="A5" s="1"/>
@@ -1000,10 +1032,6 @@
     <row r="7" spans="1:6" ht="15.75">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="15.75">
       <c r="A8" s="1"/>

--- a/Data/ENCORE_2024_Priming/CRMAccuracyData.xlsx
+++ b/Data/ENCORE_2024_Priming/CRMAccuracyData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PPP Lab\Documents\Titrator\Data\ENCORE_2024_Priming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F92D795-259A-4FAD-BDC4-9EF4EB3C5665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714D8ED7-1DBB-4FFA-BFC3-A60E3A53FE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1335" windowWidth="11685" windowHeight="10185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="615" windowWidth="11685" windowHeight="10185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CRMAccuracyData" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -55,12 +55,18 @@
   <si>
     <t>No open date</t>
   </si>
+  <si>
+    <t>CRM202_opened20241031</t>
+  </si>
+  <si>
+    <t>open 20241010</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +225,13 @@
       <color rgb="FF000000"/>
       <name val="Lucida Grande"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -562,7 +575,7 @@
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -571,6 +584,9 @@
     <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -929,7 +945,7 @@
   <dimension ref="A1:F150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -971,7 +987,7 @@
         <v>2224.4699999999998</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2" si="0">100*(B2-C2)/C2</f>
+        <f t="shared" ref="D2:D4" si="0">100*(B2-C2)/C2</f>
         <v>-0.27676884830992093</v>
       </c>
       <c r="E2" s="1">
@@ -982,44 +998,64 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75">
-      <c r="A3" s="1">
+      <c r="A3" s="7">
         <v>20241009</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1">
+      <c r="B3" s="8">
+        <v>2221.9117900000001</v>
+      </c>
+      <c r="C3" s="7">
         <v>2224.4699999999998</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1">
+      <c r="D3" s="7">
+        <v>-0.11500312433971643</v>
+      </c>
+      <c r="E3" s="7">
         <v>180</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75">
-      <c r="A4" s="1">
+      <c r="A4" s="7">
         <v>20241010</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1">
+      <c r="B4" s="6">
+        <v>2319.57584658833</v>
+      </c>
+      <c r="C4" s="7">
         <v>2224.4699999999998</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1">
+      <c r="D4" s="7">
+        <v>4.2754384904417781</v>
+      </c>
+      <c r="E4" s="7">
         <v>180</v>
       </c>
-      <c r="F4" s="1">
-        <v>20241010</v>
+      <c r="F4" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="A5" s="1">
+        <v>20241031</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2199.6047899999999</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2215.13</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-0.70087128099999996</v>
+      </c>
+      <c r="E5" s="1">
+        <v>202</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="15.75">
       <c r="A6" s="1"/>
